--- a/Employee_Reports35/Ray Maitem Maureal Q0477.xlsx
+++ b/Employee_Reports35/Ray Maitem Maureal Q0477.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K35"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1504,11 +1504,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1553,11 +1553,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1590,11 +1590,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1630,20 +1630,20 @@
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>14-Jul-2025</t>
+          <t>18-Mar-2025</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>14-Jul-2026</t>
+          <t>18-Mar-2026</t>
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1659,17 +1659,17 @@
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+          <t>Misaligned Pallet-ULD Recovery Procedure (SOPs)</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>IMS</t>
+          <t>CARGO</t>
         </is>
       </c>
       <c r="D26" s="3" t="inlineStr">
         <is>
-          <t>LSME-IMS-SOP-018</t>
+          <t>LSME-CRG-SOP-030</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1679,20 +1679,20 @@
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>09-Apr-2025</t>
+          <t>05-Apr-2025</t>
         </is>
       </c>
       <c r="G26" s="3" t="inlineStr">
         <is>
-          <t>09-Apr-2026</t>
+          <t>05-Apr-2026</t>
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1708,28 +1708,40 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr"/>
-      <c r="D27" s="3" t="inlineStr"/>
-      <c r="E27" s="3" t="inlineStr"/>
+          <t>Contigency Plan During Heavy Rainfall (SOPs)</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>IMS</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>LSME-IMS-SOP-018</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>10-Apr-2025</t>
+          <t>18-Mar-2025</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>10-Apr-2026</t>
+          <t>18-Mar-2026</t>
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1745,40 +1757,28 @@
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>CARGO</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>LSME-CRG-SOP-003</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>SOP</t>
-        </is>
-      </c>
+          <t>Procedure For Handling New or Unfamilliar Task (SOPs)</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+      <c r="D28" s="3" t="inlineStr"/>
+      <c r="E28" s="3" t="inlineStr"/>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>25-Jul-2025</t>
+          <t>10-Apr-2025</t>
         </is>
       </c>
       <c r="G28" s="3" t="inlineStr">
         <is>
-          <t>25-Jul-2026</t>
+          <t>10-Apr-2026</t>
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>264</v>
+        <v>157</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1794,17 +1794,17 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>Weight Scale Verification Procedure(LSME-IMS-SOP-023 ) (SOPs)</t>
+          <t>Replacement Procedure Of ASI Gateway (SOPs)</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>IMS</t>
+          <t>CARGO</t>
         </is>
       </c>
       <c r="D29" s="3" t="inlineStr">
         <is>
-          <t>LSME-IMS-SOP-023</t>
+          <t>LSME-CRG-SOP-041</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1814,20 +1814,20 @@
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>18-Jul-2025</t>
+          <t>04-Apr-2025</t>
         </is>
       </c>
       <c r="G29" s="3" t="inlineStr">
         <is>
-          <t>18-Jul-2026</t>
+          <t>04-Apr-2026</t>
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
+          <t>Stacker Crane Aisle Annual Maintenance And Megger Test Procedure (SOPs)</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
@@ -1853,7 +1853,7 @@
       </c>
       <c r="D30" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-009</t>
+          <t>LSME-CRG-SOP-003</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1863,20 +1863,20 @@
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>25-Jul-2025</t>
+          <t>29-Jul-2025</t>
         </is>
       </c>
       <c r="G30" s="3" t="inlineStr">
         <is>
-          <t>25-Jul-2026</t>
+          <t>29-Jul-2026</t>
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1892,17 +1892,17 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
+          <t>Weight Scale Verification Procedure(LSME-IMS-SOP-023 ) (SOPs)</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>CARGO</t>
+          <t>IMS</t>
         </is>
       </c>
       <c r="D31" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-010</t>
+          <t>LSME-IMS-SOP-023</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1912,20 +1912,20 @@
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2025</t>
+          <t>18-Jul-2025</t>
         </is>
       </c>
       <c r="G31" s="3" t="inlineStr">
         <is>
-          <t>26-Jul-2026</t>
+          <t>18-Jul-2026</t>
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
+          <t>Replacement of Stacker Crane Driven Wheel (SOPs)</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
@@ -1951,7 +1951,7 @@
       </c>
       <c r="D32" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-001</t>
+          <t>LSME-CRG-SOP-009</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1961,20 +1961,20 @@
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>25-Jul-2025</t>
+          <t>27-Jul-2025</t>
         </is>
       </c>
       <c r="G32" s="3" t="inlineStr">
         <is>
-          <t>25-Jul-2026</t>
+          <t>27-Jul-2026</t>
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -1990,7 +1990,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
+          <t>Replacement of Stacker Crane Fork Flyer Chain (SOPs)</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="D33" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-011</t>
+          <t>LSME-CRG-SOP-010</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -2010,20 +2010,20 @@
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>15-Aug-2025</t>
+          <t>27-Jul-2025</t>
         </is>
       </c>
       <c r="G33" s="3" t="inlineStr">
         <is>
-          <t>15-Aug-2026</t>
+          <t>27-Jul-2026</t>
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2039,7 +2039,7 @@
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+          <t>Replacement of Stacker Crane Wire Rope (SOPs)</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
@@ -2049,7 +2049,7 @@
       </c>
       <c r="D34" s="3" t="inlineStr">
         <is>
-          <t>LSME-CRG-SOP-018</t>
+          <t>LSME-CRG-SOP-001</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -2059,20 +2059,20 @@
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>15-Aug-2025</t>
+          <t>27-Jul-2025</t>
         </is>
       </c>
       <c r="G34" s="3" t="inlineStr">
         <is>
-          <t>15-Aug-2026</t>
+          <t>27-Jul-2026</t>
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>02-Nov-2025</t>
+          <t>03-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2088,36 +2088,134 @@
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
+          <t>Replacing Bearings Of ULD Hoist Counterweight Pulley (SOPs)</t>
+        </is>
+      </c>
+      <c r="C35" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D35" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-011</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="inlineStr">
+        <is>
+          <t>31-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>31-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H35" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="I35" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J35" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K35" s="3" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Overload and Load Testing Procedure In ULD Hoist (SOPs)</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>CARGO</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>LSME-CRG-SOP-018</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>SOP</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="inlineStr">
+        <is>
+          <t>31-Aug-2025</t>
+        </is>
+      </c>
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>31-Aug-2026</t>
+        </is>
+      </c>
+      <c r="H36" s="3" t="n">
+        <v>300</v>
+      </c>
+      <c r="I36" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J36" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K36" s="3" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
           <t>IS0 55001 (Other Trainings)</t>
         </is>
       </c>
-      <c r="C35" s="3" t="inlineStr"/>
-      <c r="D35" s="3" t="inlineStr"/>
-      <c r="E35" s="3" t="inlineStr"/>
-      <c r="F35" s="3" t="inlineStr">
+      <c r="C37" s="3" t="inlineStr"/>
+      <c r="D37" s="3" t="inlineStr"/>
+      <c r="E37" s="3" t="inlineStr"/>
+      <c r="F37" s="3" t="inlineStr">
         <is>
           <t>01-Jul-2025</t>
         </is>
       </c>
-      <c r="G35" s="3" t="inlineStr">
+      <c r="G37" s="3" t="inlineStr">
         <is>
           <t>01-Jul-2027</t>
         </is>
       </c>
-      <c r="H35" s="3" t="n">
-        <v>605</v>
-      </c>
-      <c r="I35" s="3" t="inlineStr">
-        <is>
-          <t>02-Nov-2025</t>
-        </is>
-      </c>
-      <c r="J35" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K35" s="3" t="inlineStr"/>
+      <c r="H37" s="3" t="n">
+        <v>604</v>
+      </c>
+      <c r="I37" s="3" t="inlineStr">
+        <is>
+          <t>03-Nov-2025</t>
+        </is>
+      </c>
+      <c r="J37" s="3" t="inlineStr">
+        <is>
+          <t>VALID</t>
+        </is>
+      </c>
+      <c r="K37" s="3" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Employee_Reports35/Ray Maitem Maureal Q0477.xlsx
+++ b/Employee_Reports35/Ray Maitem Maureal Q0477.xlsx
@@ -572,11 +572,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -621,11 +621,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -670,11 +670,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -719,11 +719,11 @@
         </is>
       </c>
       <c r="H6" s="3" t="n">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I6" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J6" s="3" t="inlineStr">
@@ -768,11 +768,11 @@
         </is>
       </c>
       <c r="H7" s="3" t="n">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I7" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J7" s="3" t="inlineStr">
@@ -817,11 +817,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -866,11 +866,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -915,11 +915,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -964,11 +964,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1013,11 +1013,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1062,11 +1062,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
@@ -1111,11 +1111,11 @@
         </is>
       </c>
       <c r="H14" s="3" t="n">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I14" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J14" s="3" t="inlineStr">
@@ -1160,11 +1160,11 @@
         </is>
       </c>
       <c r="H15" s="3" t="n">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I15" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J15" s="3" t="inlineStr">
@@ -1209,11 +1209,11 @@
         </is>
       </c>
       <c r="H16" s="3" t="n">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I16" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J16" s="3" t="inlineStr">
@@ -1258,11 +1258,11 @@
         </is>
       </c>
       <c r="H17" s="3" t="n">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I17" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J17" s="3" t="inlineStr">
@@ -1307,11 +1307,11 @@
         </is>
       </c>
       <c r="H18" s="3" t="n">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I18" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J18" s="3" t="inlineStr">
@@ -1356,11 +1356,11 @@
         </is>
       </c>
       <c r="H19" s="3" t="n">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I19" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J19" s="3" t="inlineStr">
@@ -1405,11 +1405,11 @@
         </is>
       </c>
       <c r="H20" s="3" t="n">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="I20" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J20" s="3" t="inlineStr">
@@ -1454,11 +1454,11 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
       <c r="I21" s="4" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J21" s="4" t="inlineStr">
@@ -1504,11 +1504,11 @@
         </is>
       </c>
       <c r="H22" s="3" t="n">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="I22" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J22" s="3" t="inlineStr">
@@ -1553,11 +1553,11 @@
         </is>
       </c>
       <c r="H23" s="3" t="n">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I23" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J23" s="3" t="inlineStr">
@@ -1590,11 +1590,11 @@
         </is>
       </c>
       <c r="H24" s="3" t="n">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="I24" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J24" s="3" t="inlineStr">
@@ -1639,11 +1639,11 @@
         </is>
       </c>
       <c r="H25" s="3" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I25" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J25" s="3" t="inlineStr">
@@ -1688,11 +1688,11 @@
         </is>
       </c>
       <c r="H26" s="3" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I26" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J26" s="3" t="inlineStr">
@@ -1737,11 +1737,11 @@
         </is>
       </c>
       <c r="H27" s="3" t="n">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I27" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J27" s="3" t="inlineStr">
@@ -1774,11 +1774,11 @@
         </is>
       </c>
       <c r="H28" s="3" t="n">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I28" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J28" s="3" t="inlineStr">
@@ -1823,11 +1823,11 @@
         </is>
       </c>
       <c r="H29" s="3" t="n">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I29" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J29" s="3" t="inlineStr">
@@ -1872,11 +1872,11 @@
         </is>
       </c>
       <c r="H30" s="3" t="n">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="I30" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J30" s="3" t="inlineStr">
@@ -1921,11 +1921,11 @@
         </is>
       </c>
       <c r="H31" s="3" t="n">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I31" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J31" s="3" t="inlineStr">
@@ -1970,11 +1970,11 @@
         </is>
       </c>
       <c r="H32" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I32" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J32" s="3" t="inlineStr">
@@ -2019,11 +2019,11 @@
         </is>
       </c>
       <c r="H33" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I33" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J33" s="3" t="inlineStr">
@@ -2068,11 +2068,11 @@
         </is>
       </c>
       <c r="H34" s="3" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I34" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J34" s="3" t="inlineStr">
@@ -2117,11 +2117,11 @@
         </is>
       </c>
       <c r="H35" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I35" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J35" s="3" t="inlineStr">
@@ -2166,11 +2166,11 @@
         </is>
       </c>
       <c r="H36" s="3" t="n">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I36" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J36" s="3" t="inlineStr">
@@ -2203,11 +2203,11 @@
         </is>
       </c>
       <c r="H37" s="3" t="n">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I37" s="3" t="inlineStr">
         <is>
-          <t>03-Nov-2025</t>
+          <t>04-Nov-2025</t>
         </is>
       </c>
       <c r="J37" s="3" t="inlineStr">
